--- a/1.Hidrogeoquímica/PuntosMuestreoUNAL.xlsx
+++ b/1.Hidrogeoquímica/PuntosMuestreoUNAL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MEGIA\Documents\PEDRO ROMERO\Curso\notebooks\1.Hidrogeoquímica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE849877-2B49-4E89-A32C-5110815E0EB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFED8771-C5E7-4BDF-9BA6-B878B09550E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{4D053174-FDA8-4BCE-8BC7-5DCB761D8F56}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4D053174-FDA8-4BCE-8BC7-5DCB761D8F56}"/>
   </bookViews>
   <sheets>
     <sheet name="PuntosMuestreo" sheetId="1" r:id="rId1"/>
@@ -119,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="58">
   <si>
     <t>Name</t>
   </si>
@@ -291,6 +291,9 @@
   </si>
   <si>
     <t>Sample</t>
+  </si>
+  <si>
+    <t>Elevation (m)</t>
   </si>
 </sst>
 </file>
@@ -3359,8 +3362,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{175F2782-EA92-4EFC-AABF-0F4AF32C495B}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3378,6 +3381,9 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -3400,6 +3406,9 @@
       <c r="C3" s="1">
         <v>4.6388480000000003</v>
       </c>
+      <c r="D3">
+        <v>2556</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -3411,6 +3420,9 @@
       <c r="C4" s="1">
         <v>4.6403889999999999</v>
       </c>
+      <c r="D4">
+        <v>2555</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -3421,6 +3433,9 @@
       </c>
       <c r="C5" s="1">
         <v>4.6337890000000002</v>
+      </c>
+      <c r="D5">
+        <v>2564</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -3473,6 +3488,7 @@
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
+      <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B12" s="1"/>
@@ -3495,7 +3511,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E090A589-2999-4BCA-8DC3-7C625F0DFF3B}">
   <dimension ref="A1:Z40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A11" activeCellId="4" sqref="A44:XFD44 A35:XFD35 A27:XFD27 A25:XFD25 A11:XFD11"/>
     </sheetView>
   </sheetViews>
